--- a/Trabalho Final/Tabelas/orgao_subordinado.xlsx
+++ b/Trabalho Final/Tabelas/orgao_subordinado.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15255" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="orgao_subordinado" localSheetId="0">Plan1!$A$2:$C$251</definedName>
+    <definedName name="orgao_subordinado" localSheetId="0">Plan1!$A$2:$C$247</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="520">
   <si>
     <t>20101</t>
   </si>
@@ -1183,36 +1183,24 @@
     <t>FUNDO DA MARINHA MERCANTE</t>
   </si>
   <si>
-    <t>41101</t>
-  </si>
-  <si>
-    <t>MINISTERIO DAS COMUNICACOES</t>
+    <t>41231</t>
+  </si>
+  <si>
+    <t>AGENCIA NACIONAL DE TELECOMUNICACOES</t>
   </si>
   <si>
     <t>41000</t>
   </si>
   <si>
-    <t>41231</t>
-  </si>
-  <si>
-    <t>AGENCIA NACIONAL DE TELECOMUNICACOES</t>
-  </si>
-  <si>
-    <t>42101</t>
-  </si>
-  <si>
-    <t>MINISTERIO DA CULTURA</t>
+    <t>42201</t>
+  </si>
+  <si>
+    <t>FUNDACAO CASA RUI BARBOSA</t>
   </si>
   <si>
     <t>42000</t>
   </si>
   <si>
-    <t>42201</t>
-  </si>
-  <si>
-    <t>FUNDACAO CASA RUI BARBOSA</t>
-  </si>
-  <si>
     <t>42202</t>
   </si>
   <si>
@@ -1255,21 +1243,15 @@
     <t>FUNDO NACIONAL DE CULTURA</t>
   </si>
   <si>
-    <t>44101</t>
-  </si>
-  <si>
-    <t>MINISTERIO DO MEIO AMBIENTE</t>
+    <t>44102</t>
+  </si>
+  <si>
+    <t>SERVICO FLORESTAL BRASILEIRO - SFB</t>
   </si>
   <si>
     <t>44000</t>
   </si>
   <si>
-    <t>44102</t>
-  </si>
-  <si>
-    <t>SERVICO FLORESTAL BRASILEIRO - SFB</t>
-  </si>
-  <si>
     <t>44201</t>
   </si>
   <si>
@@ -1586,12 +1568,6 @@
   </si>
   <si>
     <t>SECRETARIA DE PORTOS - SEP</t>
-  </si>
-  <si>
-    <t>68201</t>
-  </si>
-  <si>
-    <t>AGENCIA NAC. DE TRANSPORTES AQUAVIARIOS-ANTAQ</t>
   </si>
   <si>
     <t>69101</t>
@@ -1947,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,13 +1938,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4003,18 +3979,18 @@
         <v>384</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4025,7 +4001,7 @@
         <v>389</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4036,7 +4012,7 @@
         <v>391</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4047,7 +4023,7 @@
         <v>393</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4058,7 +4034,7 @@
         <v>395</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4069,7 +4045,7 @@
         <v>397</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4080,7 +4056,7 @@
         <v>399</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -4091,29 +4067,29 @@
         <v>401</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4124,7 +4100,7 @@
         <v>408</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4135,7 +4111,7 @@
         <v>410</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4146,7 +4122,7 @@
         <v>412</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4157,40 +4133,40 @@
         <v>414</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4201,7 +4177,7 @@
         <v>423</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4212,51 +4188,51 @@
         <v>425</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4267,7 +4243,7 @@
         <v>437</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4278,7 +4254,7 @@
         <v>439</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,7 +4265,7 @@
         <v>441</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -4300,7 +4276,7 @@
         <v>443</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4311,7 +4287,7 @@
         <v>445</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4322,7 +4298,7 @@
         <v>447</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4333,7 +4309,7 @@
         <v>449</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4344,7 +4320,7 @@
         <v>451</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4355,7 +4331,7 @@
         <v>453</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4366,40 +4342,40 @@
         <v>455</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4410,7 +4386,7 @@
         <v>464</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4421,7 +4397,7 @@
         <v>466</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -4432,73 +4408,73 @@
         <v>468</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4509,40 +4485,40 @@
         <v>485</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>483</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>483</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>492</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4652,7 +4628,7 @@
         <v>512</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2</v>
+        <v>429</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4663,7 +4639,7 @@
         <v>514</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4674,51 +4650,7 @@
         <v>516</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
